--- a/biology/Botanique/Peter_Edward_Brandham/Peter_Edward_Brandham.xlsx
+++ b/biology/Botanique/Peter_Edward_Brandham/Peter_Edward_Brandham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Edward Brandham, né en 1937, est un botaniste britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Edward Brandham est diplômé du Queen Mary College à Londres, il travaille principalement sur des monocotylédones pétaloïdes[1].
-Avec Susan Carter, il décrit les espèces Aloe juvenna (en)[2] et Aloe morijensis (de)[3].
-Il est l'auteur de 24 articles scientifiques et de vulgarisation sur son travail concernant le genre Narcissus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Edward Brandham est diplômé du Queen Mary College à Londres, il travaille principalement sur des monocotylédones pétaloïdes.
+Avec Susan Carter, il décrit les espèces Aloe juvenna (en) et Aloe morijensis (de).
+Il est l'auteur de 24 articles scientifiques et de vulgarisation sur son travail concernant le genre Narcissus.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, la Royal Horticultural Society lui décerne la Peter Barr Memorial Cup[4], qui récompense un travail de qualité dans le domaine des jonquilles[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, la Royal Horticultural Society lui décerne la Peter Barr Memorial Cup, qui récompense un travail de qualité dans le domaine des jonquilles.
 </t>
         </is>
       </c>
